--- a/Static Evaluation/Java-Swift/dictionaryResults.xlsx
+++ b/Static Evaluation/Java-Swift/dictionaryResults.xlsx
@@ -1,20 +1,25 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="26408"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Sanchit\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/sanchit/Documents/workspace/CS_Research/J2S/Static Evaluation/Java-Swift/"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12330"/>
+    <workbookView xWindow="19200" yWindow="460" windowWidth="19200" windowHeight="21140"/>
   </bookViews>
   <sheets>
     <sheet name="output" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="150001" concurrentCalc="0"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
+      <mx:ArchID Flags="2"/>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
@@ -294,7 +299,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="18" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -1097,21 +1102,21 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C364"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A314" workbookViewId="0">
-      <selection activeCell="C351" sqref="C351"/>
+    <sheetView tabSelected="1" topLeftCell="A272" zoomScale="200" workbookViewId="0">
+      <selection activeCell="A283" sqref="A283"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="43.28515625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="43.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>1</v>
       </c>
@@ -1119,12 +1124,12 @@
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>4</v>
       </c>
@@ -1135,7 +1140,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>5</v>
       </c>
@@ -1146,7 +1151,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>6</v>
       </c>
@@ -1157,7 +1162,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>7</v>
       </c>
@@ -1168,7 +1173,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>8</v>
       </c>
@@ -1179,7 +1184,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>9</v>
       </c>
@@ -1190,7 +1195,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>10</v>
       </c>
@@ -1201,12 +1206,12 @@
         <v>89</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>4</v>
       </c>
@@ -1218,7 +1223,7 @@
         <v>YES</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>5</v>
       </c>
@@ -1230,12 +1235,12 @@
         <v>YES</v>
       </c>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
         <v>10</v>
       </c>
@@ -1248,7 +1253,7 @@
         <v>NO</v>
       </c>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
         <v>8</v>
       </c>
@@ -1261,7 +1266,7 @@
         <v>YES</v>
       </c>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
         <v>9</v>
       </c>
@@ -1274,7 +1279,7 @@
         <v>YES</v>
       </c>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
         <v>4</v>
       </c>
@@ -1287,7 +1292,7 @@
         <v>YES</v>
       </c>
     </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
         <v>7</v>
       </c>
@@ -1300,7 +1305,7 @@
         <v>YES</v>
       </c>
     </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
         <v>6</v>
       </c>
@@ -1313,7 +1318,7 @@
         <v>YES</v>
       </c>
     </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
         <v>5</v>
       </c>
@@ -1326,17 +1331,17 @@
         <v>YES</v>
       </c>
     </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
         <v>1</v>
       </c>
@@ -1344,12 +1349,12 @@
         <v>15</v>
       </c>
     </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
         <v>16</v>
       </c>
@@ -1360,7 +1365,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
         <v>17</v>
       </c>
@@ -1371,7 +1376,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
         <v>18</v>
       </c>
@@ -1382,7 +1387,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
         <v>19</v>
       </c>
@@ -1393,7 +1398,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
         <v>20</v>
       </c>
@@ -1404,7 +1409,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
         <v>21</v>
       </c>
@@ -1415,7 +1420,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
         <v>22</v>
       </c>
@@ -1426,7 +1431,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
         <v>23</v>
       </c>
@@ -1437,12 +1442,12 @@
         <v>89</v>
       </c>
     </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="42" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
         <v>16</v>
       </c>
@@ -1454,7 +1459,7 @@
         <v>YES</v>
       </c>
     </row>
-    <row r="43" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
         <v>17</v>
       </c>
@@ -1466,12 +1471,12 @@
         <v>NO</v>
       </c>
     </row>
-    <row r="45" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A45" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="46" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A46" t="s">
         <v>19</v>
       </c>
@@ -1484,7 +1489,7 @@
         <v>YES</v>
       </c>
     </row>
-    <row r="47" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A47" t="s">
         <v>16</v>
       </c>
@@ -1497,7 +1502,7 @@
         <v>YES</v>
       </c>
     </row>
-    <row r="48" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A48" t="s">
         <v>23</v>
       </c>
@@ -1510,7 +1515,7 @@
         <v>NO</v>
       </c>
     </row>
-    <row r="49" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A49" t="s">
         <v>18</v>
       </c>
@@ -1523,7 +1528,7 @@
         <v>YES</v>
       </c>
     </row>
-    <row r="50" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A50" t="s">
         <v>20</v>
       </c>
@@ -1536,7 +1541,7 @@
         <v>YES</v>
       </c>
     </row>
-    <row r="51" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A51" t="s">
         <v>21</v>
       </c>
@@ -1549,7 +1554,7 @@
         <v>NO</v>
       </c>
     </row>
-    <row r="52" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A52" t="s">
         <v>17</v>
       </c>
@@ -1562,7 +1567,7 @@
         <v>NO</v>
       </c>
     </row>
-    <row r="53" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A53" t="s">
         <v>22</v>
       </c>
@@ -1575,17 +1580,17 @@
         <v>NO</v>
       </c>
     </row>
-    <row r="55" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A55" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="57" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A57" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="59" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A59" t="s">
         <v>1</v>
       </c>
@@ -1593,12 +1598,12 @@
         <v>25</v>
       </c>
     </row>
-    <row r="60" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A60" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="61" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A61" t="s">
         <v>19</v>
       </c>
@@ -1609,7 +1614,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="62" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A62" t="s">
         <v>26</v>
       </c>
@@ -1620,7 +1625,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="63" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A63" t="s">
         <v>17</v>
       </c>
@@ -1631,7 +1636,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="64" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A64" t="s">
         <v>27</v>
       </c>
@@ -1642,7 +1647,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="65" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A65" t="s">
         <v>10</v>
       </c>
@@ -1653,7 +1658,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="66" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A66" t="s">
         <v>21</v>
       </c>
@@ -1664,7 +1669,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="67" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A67" t="s">
         <v>28</v>
       </c>
@@ -1675,7 +1680,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="68" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A68" t="s">
         <v>29</v>
       </c>
@@ -1686,12 +1691,12 @@
         <v>88</v>
       </c>
     </row>
-    <row r="70" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A70" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="71" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A71" t="s">
         <v>19</v>
       </c>
@@ -1703,7 +1708,7 @@
         <v>NO</v>
       </c>
     </row>
-    <row r="72" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A72" t="s">
         <v>26</v>
       </c>
@@ -1715,12 +1720,12 @@
         <v>YES</v>
       </c>
     </row>
-    <row r="74" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A74" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="75" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A75" t="s">
         <v>26</v>
       </c>
@@ -1733,7 +1738,7 @@
         <v>YES</v>
       </c>
     </row>
-    <row r="76" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A76" t="s">
         <v>27</v>
       </c>
@@ -1746,7 +1751,7 @@
         <v>YES</v>
       </c>
     </row>
-    <row r="77" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A77" t="s">
         <v>10</v>
       </c>
@@ -1759,7 +1764,7 @@
         <v>YES</v>
       </c>
     </row>
-    <row r="78" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A78" t="s">
         <v>19</v>
       </c>
@@ -1772,7 +1777,7 @@
         <v>NO</v>
       </c>
     </row>
-    <row r="79" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A79" t="s">
         <v>21</v>
       </c>
@@ -1785,7 +1790,7 @@
         <v>NO</v>
       </c>
     </row>
-    <row r="80" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A80" t="s">
         <v>17</v>
       </c>
@@ -1798,7 +1803,7 @@
         <v>NO</v>
       </c>
     </row>
-    <row r="81" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A81" t="s">
         <v>29</v>
       </c>
@@ -1811,7 +1816,7 @@
         <v>YES</v>
       </c>
     </row>
-    <row r="82" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A82" t="s">
         <v>28</v>
       </c>
@@ -1824,17 +1829,17 @@
         <v>NO</v>
       </c>
     </row>
-    <row r="84" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A84" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="86" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A86" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="88" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A88" t="s">
         <v>1</v>
       </c>
@@ -1842,12 +1847,12 @@
         <v>31</v>
       </c>
     </row>
-    <row r="89" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A89" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="90" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A90" t="s">
         <v>19</v>
       </c>
@@ -1858,7 +1863,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="91" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A91" t="s">
         <v>32</v>
       </c>
@@ -1869,7 +1874,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="92" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A92" t="s">
         <v>33</v>
       </c>
@@ -1880,7 +1885,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="93" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A93" t="s">
         <v>34</v>
       </c>
@@ -1891,7 +1896,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="94" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A94" t="s">
         <v>35</v>
       </c>
@@ -1902,7 +1907,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="95" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A95" t="s">
         <v>20</v>
       </c>
@@ -1913,7 +1918,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="96" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A96" t="s">
         <v>27</v>
       </c>
@@ -1924,7 +1929,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="97" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A97" t="s">
         <v>36</v>
       </c>
@@ -1935,12 +1940,12 @@
         <v>89</v>
       </c>
     </row>
-    <row r="99" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A99" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="100" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A100" t="s">
         <v>19</v>
       </c>
@@ -1952,7 +1957,7 @@
         <v>NO</v>
       </c>
     </row>
-    <row r="101" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A101" t="s">
         <v>32</v>
       </c>
@@ -1964,12 +1969,12 @@
         <v>NO</v>
       </c>
     </row>
-    <row r="103" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A103" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="104" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A104" t="s">
         <v>32</v>
       </c>
@@ -1982,7 +1987,7 @@
         <v>NO</v>
       </c>
     </row>
-    <row r="105" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A105" t="s">
         <v>27</v>
       </c>
@@ -1995,7 +2000,7 @@
         <v>NO</v>
       </c>
     </row>
-    <row r="106" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A106" t="s">
         <v>19</v>
       </c>
@@ -2008,7 +2013,7 @@
         <v>NO</v>
       </c>
     </row>
-    <row r="107" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A107" t="s">
         <v>20</v>
       </c>
@@ -2021,7 +2026,7 @@
         <v>YES</v>
       </c>
     </row>
-    <row r="108" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A108" t="s">
         <v>36</v>
       </c>
@@ -2034,7 +2039,7 @@
         <v>NO</v>
       </c>
     </row>
-    <row r="109" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A109" t="s">
         <v>34</v>
       </c>
@@ -2047,7 +2052,7 @@
         <v>NO</v>
       </c>
     </row>
-    <row r="110" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A110" t="s">
         <v>35</v>
       </c>
@@ -2060,7 +2065,7 @@
         <v>YES</v>
       </c>
     </row>
-    <row r="111" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A111" t="s">
         <v>33</v>
       </c>
@@ -2073,17 +2078,17 @@
         <v>YES</v>
       </c>
     </row>
-    <row r="113" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A113" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="115" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A115" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="117" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A117" t="s">
         <v>1</v>
       </c>
@@ -2091,12 +2096,12 @@
         <v>38</v>
       </c>
     </row>
-    <row r="118" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A118" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="119" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A119" t="s">
         <v>39</v>
       </c>
@@ -2107,7 +2112,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="120" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A120" t="s">
         <v>40</v>
       </c>
@@ -2118,7 +2123,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="121" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A121" t="s">
         <v>41</v>
       </c>
@@ -2129,7 +2134,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="122" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A122" t="s">
         <v>42</v>
       </c>
@@ -2140,12 +2145,12 @@
         <v>89</v>
       </c>
     </row>
-    <row r="124" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A124" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="125" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A125" t="s">
         <v>39</v>
       </c>
@@ -2157,7 +2162,7 @@
         <v>YES</v>
       </c>
     </row>
-    <row r="126" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A126" t="s">
         <v>40</v>
       </c>
@@ -2169,12 +2174,12 @@
         <v>YES</v>
       </c>
     </row>
-    <row r="128" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A128" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="129" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A129" t="s">
         <v>40</v>
       </c>
@@ -2187,7 +2192,7 @@
         <v>YES</v>
       </c>
     </row>
-    <row r="130" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A130" t="s">
         <v>41</v>
       </c>
@@ -2200,7 +2205,7 @@
         <v>YES</v>
       </c>
     </row>
-    <row r="131" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A131" t="s">
         <v>42</v>
       </c>
@@ -2213,7 +2218,7 @@
         <v>NO</v>
       </c>
     </row>
-    <row r="132" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A132" t="s">
         <v>39</v>
       </c>
@@ -2226,17 +2231,17 @@
         <v>YES</v>
       </c>
     </row>
-    <row r="134" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A134" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="136" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A136" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="138" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A138" t="s">
         <v>1</v>
       </c>
@@ -2244,12 +2249,12 @@
         <v>44</v>
       </c>
     </row>
-    <row r="139" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A139" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="140" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A140" t="s">
         <v>45</v>
       </c>
@@ -2260,7 +2265,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="141" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A141" t="s">
         <v>46</v>
       </c>
@@ -2271,7 +2276,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="142" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A142" t="s">
         <v>32</v>
       </c>
@@ -2282,7 +2287,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="143" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A143" t="s">
         <v>47</v>
       </c>
@@ -2293,7 +2298,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="144" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A144" t="s">
         <v>48</v>
       </c>
@@ -2304,7 +2309,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="145" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A145" t="s">
         <v>49</v>
       </c>
@@ -2315,7 +2320,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="146" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A146" t="s">
         <v>50</v>
       </c>
@@ -2326,7 +2331,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="147" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A147" t="s">
         <v>51</v>
       </c>
@@ -2337,12 +2342,12 @@
         <v>89</v>
       </c>
     </row>
-    <row r="149" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A149" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="150" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A150" t="s">
         <v>45</v>
       </c>
@@ -2354,7 +2359,7 @@
         <v>YES</v>
       </c>
     </row>
-    <row r="151" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A151" t="s">
         <v>46</v>
       </c>
@@ -2366,12 +2371,12 @@
         <v>NO</v>
       </c>
     </row>
-    <row r="153" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A153" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="154" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A154" t="s">
         <v>45</v>
       </c>
@@ -2384,7 +2389,7 @@
         <v>YES</v>
       </c>
     </row>
-    <row r="155" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A155" t="s">
         <v>32</v>
       </c>
@@ -2397,7 +2402,7 @@
         <v>NO</v>
       </c>
     </row>
-    <row r="156" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A156" t="s">
         <v>47</v>
       </c>
@@ -2410,7 +2415,7 @@
         <v>NO</v>
       </c>
     </row>
-    <row r="157" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A157" t="s">
         <v>49</v>
       </c>
@@ -2423,7 +2428,7 @@
         <v>NO</v>
       </c>
     </row>
-    <row r="158" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A158" t="s">
         <v>51</v>
       </c>
@@ -2436,7 +2441,7 @@
         <v>NO</v>
       </c>
     </row>
-    <row r="159" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A159" t="s">
         <v>46</v>
       </c>
@@ -2449,7 +2454,7 @@
         <v>NO</v>
       </c>
     </row>
-    <row r="160" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A160" t="s">
         <v>48</v>
       </c>
@@ -2462,7 +2467,7 @@
         <v>NO</v>
       </c>
     </row>
-    <row r="161" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="161" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A161" t="s">
         <v>50</v>
       </c>
@@ -2475,17 +2480,17 @@
         <v>NO</v>
       </c>
     </row>
-    <row r="163" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="163" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A163" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="165" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="165" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A165" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="167" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="167" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A167" t="s">
         <v>1</v>
       </c>
@@ -2493,12 +2498,12 @@
         <v>53</v>
       </c>
     </row>
-    <row r="168" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="168" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A168" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="169" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="169" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A169" t="s">
         <v>45</v>
       </c>
@@ -2509,7 +2514,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="170" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="170" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A170" t="s">
         <v>54</v>
       </c>
@@ -2520,7 +2525,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="171" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="171" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A171" t="s">
         <v>47</v>
       </c>
@@ -2531,7 +2536,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="172" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="172" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A172" t="s">
         <v>55</v>
       </c>
@@ -2542,7 +2547,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="173" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="173" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A173" t="s">
         <v>56</v>
       </c>
@@ -2553,7 +2558,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="174" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="174" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A174" t="s">
         <v>57</v>
       </c>
@@ -2564,7 +2569,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="175" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="175" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A175" t="s">
         <v>58</v>
       </c>
@@ -2575,7 +2580,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="176" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="176" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A176" t="s">
         <v>59</v>
       </c>
@@ -2586,12 +2591,12 @@
         <v>89</v>
       </c>
     </row>
-    <row r="178" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="178" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A178" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="179" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="179" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A179" t="s">
         <v>45</v>
       </c>
@@ -2603,7 +2608,7 @@
         <v>YES</v>
       </c>
     </row>
-    <row r="180" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="180" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A180" t="s">
         <v>54</v>
       </c>
@@ -2615,12 +2620,12 @@
         <v>YES</v>
       </c>
     </row>
-    <row r="182" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="182" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A182" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="183" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="183" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A183" t="s">
         <v>45</v>
       </c>
@@ -2633,7 +2638,7 @@
         <v>YES</v>
       </c>
     </row>
-    <row r="184" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="184" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A184" t="s">
         <v>54</v>
       </c>
@@ -2646,7 +2651,7 @@
         <v>YES</v>
       </c>
     </row>
-    <row r="185" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="185" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A185" t="s">
         <v>58</v>
       </c>
@@ -2659,7 +2664,7 @@
         <v>YES</v>
       </c>
     </row>
-    <row r="186" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="186" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A186" t="s">
         <v>57</v>
       </c>
@@ -2672,7 +2677,7 @@
         <v>YES</v>
       </c>
     </row>
-    <row r="187" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="187" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A187" t="s">
         <v>47</v>
       </c>
@@ -2685,7 +2690,7 @@
         <v>NO</v>
       </c>
     </row>
-    <row r="188" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="188" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A188" t="s">
         <v>55</v>
       </c>
@@ -2698,7 +2703,7 @@
         <v>NO</v>
       </c>
     </row>
-    <row r="189" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="189" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A189" t="s">
         <v>59</v>
       </c>
@@ -2711,7 +2716,7 @@
         <v>NO</v>
       </c>
     </row>
-    <row r="190" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="190" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A190" t="s">
         <v>56</v>
       </c>
@@ -2724,17 +2729,17 @@
         <v>YES</v>
       </c>
     </row>
-    <row r="192" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="192" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A192" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="194" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="194" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A194" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="196" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="196" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A196" t="s">
         <v>1</v>
       </c>
@@ -2742,12 +2747,12 @@
         <v>61</v>
       </c>
     </row>
-    <row r="197" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="197" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A197" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="198" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="198" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A198" t="s">
         <v>22</v>
       </c>
@@ -2758,7 +2763,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="199" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="199" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A199" t="s">
         <v>62</v>
       </c>
@@ -2769,7 +2774,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="200" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="200" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A200" t="s">
         <v>63</v>
       </c>
@@ -2780,7 +2785,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="201" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="201" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A201" t="s">
         <v>64</v>
       </c>
@@ -2791,7 +2796,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="202" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="202" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A202" t="s">
         <v>65</v>
       </c>
@@ -2802,7 +2807,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="203" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="203" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A203" t="s">
         <v>66</v>
       </c>
@@ -2813,7 +2818,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="204" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="204" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A204" t="s">
         <v>47</v>
       </c>
@@ -2824,7 +2829,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="205" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="205" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A205" t="s">
         <v>57</v>
       </c>
@@ -2835,12 +2840,12 @@
         <v>89</v>
       </c>
     </row>
-    <row r="207" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="207" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A207" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="208" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="208" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A208" t="s">
         <v>22</v>
       </c>
@@ -2852,7 +2857,7 @@
         <v>YES</v>
       </c>
     </row>
-    <row r="209" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="209" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A209" t="s">
         <v>62</v>
       </c>
@@ -2864,12 +2869,12 @@
         <v>NO</v>
       </c>
     </row>
-    <row r="211" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="211" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A211" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="212" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="212" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A212" t="s">
         <v>65</v>
       </c>
@@ -2882,7 +2887,7 @@
         <v>NO</v>
       </c>
     </row>
-    <row r="213" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="213" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A213" t="s">
         <v>22</v>
       </c>
@@ -2895,7 +2900,7 @@
         <v>YES</v>
       </c>
     </row>
-    <row r="214" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="214" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A214" t="s">
         <v>64</v>
       </c>
@@ -2908,7 +2913,7 @@
         <v>YES</v>
       </c>
     </row>
-    <row r="215" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="215" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A215" t="s">
         <v>62</v>
       </c>
@@ -2921,7 +2926,7 @@
         <v>NO</v>
       </c>
     </row>
-    <row r="216" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="216" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A216" t="s">
         <v>66</v>
       </c>
@@ -2934,7 +2939,7 @@
         <v>NO</v>
       </c>
     </row>
-    <row r="217" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="217" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A217" t="s">
         <v>47</v>
       </c>
@@ -2947,7 +2952,7 @@
         <v>NO</v>
       </c>
     </row>
-    <row r="218" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="218" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A218" t="s">
         <v>57</v>
       </c>
@@ -2960,7 +2965,7 @@
         <v>NO</v>
       </c>
     </row>
-    <row r="219" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="219" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A219" t="s">
         <v>63</v>
       </c>
@@ -2973,17 +2978,17 @@
         <v>NO</v>
       </c>
     </row>
-    <row r="221" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="221" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A221" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="223" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="223" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A223" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="225" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="225" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A225" t="s">
         <v>1</v>
       </c>
@@ -2991,12 +2996,12 @@
         <v>68</v>
       </c>
     </row>
-    <row r="226" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="226" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A226" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="227" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="227" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A227" t="s">
         <v>26</v>
       </c>
@@ -3007,7 +3012,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="228" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="228" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A228" t="s">
         <v>34</v>
       </c>
@@ -3018,7 +3023,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="229" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="229" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A229" t="s">
         <v>17</v>
       </c>
@@ -3029,7 +3034,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="230" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="230" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A230" t="s">
         <v>29</v>
       </c>
@@ -3040,7 +3045,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="231" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="231" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A231" t="s">
         <v>69</v>
       </c>
@@ -3051,7 +3056,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="232" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="232" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A232" t="s">
         <v>20</v>
       </c>
@@ -3062,7 +3067,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="233" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="233" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A233" t="s">
         <v>70</v>
       </c>
@@ -3073,7 +3078,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="234" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="234" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A234" t="s">
         <v>19</v>
       </c>
@@ -3084,12 +3089,12 @@
         <v>89</v>
       </c>
     </row>
-    <row r="236" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="236" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A236" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="237" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="237" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A237" t="s">
         <v>26</v>
       </c>
@@ -3101,7 +3106,7 @@
         <v>NO</v>
       </c>
     </row>
-    <row r="238" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="238" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A238" t="s">
         <v>34</v>
       </c>
@@ -3113,12 +3118,12 @@
         <v>NO</v>
       </c>
     </row>
-    <row r="240" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="240" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A240" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="241" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="241" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A241" t="s">
         <v>26</v>
       </c>
@@ -3131,7 +3136,7 @@
         <v>NO</v>
       </c>
     </row>
-    <row r="242" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="242" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A242" t="s">
         <v>29</v>
       </c>
@@ -3144,7 +3149,7 @@
         <v>NO</v>
       </c>
     </row>
-    <row r="243" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="243" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A243" t="s">
         <v>20</v>
       </c>
@@ -3157,7 +3162,7 @@
         <v>NO</v>
       </c>
     </row>
-    <row r="244" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="244" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A244" t="s">
         <v>19</v>
       </c>
@@ -3170,7 +3175,7 @@
         <v>NO</v>
       </c>
     </row>
-    <row r="245" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="245" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A245" t="s">
         <v>17</v>
       </c>
@@ -3183,7 +3188,7 @@
         <v>YES</v>
       </c>
     </row>
-    <row r="246" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="246" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A246" t="s">
         <v>70</v>
       </c>
@@ -3196,7 +3201,7 @@
         <v>NO</v>
       </c>
     </row>
-    <row r="247" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="247" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A247" t="s">
         <v>69</v>
       </c>
@@ -3209,7 +3214,7 @@
         <v>NO</v>
       </c>
     </row>
-    <row r="248" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="248" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A248" t="s">
         <v>34</v>
       </c>
@@ -3222,17 +3227,17 @@
         <v>NO</v>
       </c>
     </row>
-    <row r="250" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="250" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A250" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="252" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="252" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A252" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="254" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="254" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A254" t="s">
         <v>1</v>
       </c>
@@ -3240,12 +3245,12 @@
         <v>72</v>
       </c>
     </row>
-    <row r="255" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="255" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A255" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="256" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="256" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A256" t="s">
         <v>27</v>
       </c>
@@ -3256,7 +3261,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="257" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="257" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A257" t="s">
         <v>17</v>
       </c>
@@ -3267,7 +3272,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="258" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="258" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A258" t="s">
         <v>55</v>
       </c>
@@ -3278,7 +3283,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="259" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="259" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A259" t="s">
         <v>26</v>
       </c>
@@ -3289,7 +3294,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="260" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="260" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A260" t="s">
         <v>73</v>
       </c>
@@ -3300,7 +3305,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="261" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="261" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A261" t="s">
         <v>32</v>
       </c>
@@ -3311,7 +3316,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="262" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="262" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A262" t="s">
         <v>29</v>
       </c>
@@ -3322,7 +3327,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="263" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="263" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A263" t="s">
         <v>19</v>
       </c>
@@ -3333,12 +3338,12 @@
         <v>89</v>
       </c>
     </row>
-    <row r="265" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="265" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A265" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="266" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="266" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A266" t="s">
         <v>27</v>
       </c>
@@ -3350,7 +3355,7 @@
         <v>NO</v>
       </c>
     </row>
-    <row r="267" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="267" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A267" t="s">
         <v>17</v>
       </c>
@@ -3362,12 +3367,12 @@
         <v>NO</v>
       </c>
     </row>
-    <row r="269" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="269" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A269" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="270" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="270" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A270" t="s">
         <v>26</v>
       </c>
@@ -3380,7 +3385,7 @@
         <v>NO</v>
       </c>
     </row>
-    <row r="271" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="271" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A271" t="s">
         <v>32</v>
       </c>
@@ -3393,7 +3398,7 @@
         <v>NO</v>
       </c>
     </row>
-    <row r="272" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="272" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A272" t="s">
         <v>27</v>
       </c>
@@ -3406,7 +3411,7 @@
         <v>NO</v>
       </c>
     </row>
-    <row r="273" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="273" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A273" t="s">
         <v>17</v>
       </c>
@@ -3419,7 +3424,7 @@
         <v>NO</v>
       </c>
     </row>
-    <row r="274" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="274" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A274" t="s">
         <v>55</v>
       </c>
@@ -3432,7 +3437,7 @@
         <v>YES</v>
       </c>
     </row>
-    <row r="275" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="275" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A275" t="s">
         <v>19</v>
       </c>
@@ -3445,7 +3450,7 @@
         <v>NO</v>
       </c>
     </row>
-    <row r="276" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="276" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A276" t="s">
         <v>73</v>
       </c>
@@ -3458,7 +3463,7 @@
         <v>NO</v>
       </c>
     </row>
-    <row r="277" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="277" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A277" t="s">
         <v>29</v>
       </c>
@@ -3471,17 +3476,17 @@
         <v>NO</v>
       </c>
     </row>
-    <row r="279" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="279" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A279" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="281" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="281" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A281" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="283" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="283" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A283" t="s">
         <v>1</v>
       </c>
@@ -3489,12 +3494,12 @@
         <v>75</v>
       </c>
     </row>
-    <row r="284" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="284" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A284" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="285" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="285" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A285" t="s">
         <v>17</v>
       </c>
@@ -3505,7 +3510,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="286" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="286" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A286" t="s">
         <v>21</v>
       </c>
@@ -3516,7 +3521,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="287" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="287" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A287" t="s">
         <v>34</v>
       </c>
@@ -3527,7 +3532,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="288" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="288" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A288" t="s">
         <v>26</v>
       </c>
@@ -3538,7 +3543,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="289" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="289" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A289" t="s">
         <v>76</v>
       </c>
@@ -3549,7 +3554,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="290" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="290" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A290" t="s">
         <v>20</v>
       </c>
@@ -3560,7 +3565,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="291" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="291" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A291" t="s">
         <v>77</v>
       </c>
@@ -3571,7 +3576,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="292" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="292" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A292" t="s">
         <v>35</v>
       </c>
@@ -3582,12 +3587,12 @@
         <v>89</v>
       </c>
     </row>
-    <row r="294" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="294" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A294" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="295" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="295" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A295" t="s">
         <v>17</v>
       </c>
@@ -3599,7 +3604,7 @@
         <v>YES</v>
       </c>
     </row>
-    <row r="296" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="296" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A296" t="s">
         <v>21</v>
       </c>
@@ -3611,12 +3616,12 @@
         <v>NO</v>
       </c>
     </row>
-    <row r="298" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="298" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A298" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="299" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="299" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A299" t="s">
         <v>26</v>
       </c>
@@ -3629,7 +3634,7 @@
         <v>YES</v>
       </c>
     </row>
-    <row r="300" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="300" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A300" t="s">
         <v>20</v>
       </c>
@@ -3642,7 +3647,7 @@
         <v>NO</v>
       </c>
     </row>
-    <row r="301" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="301" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A301" t="s">
         <v>21</v>
       </c>
@@ -3655,7 +3660,7 @@
         <v>NO</v>
       </c>
     </row>
-    <row r="302" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="302" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A302" t="s">
         <v>17</v>
       </c>
@@ -3668,7 +3673,7 @@
         <v>YES</v>
       </c>
     </row>
-    <row r="303" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="303" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A303" t="s">
         <v>76</v>
       </c>
@@ -3681,7 +3686,7 @@
         <v>YES</v>
       </c>
     </row>
-    <row r="304" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="304" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A304" t="s">
         <v>77</v>
       </c>
@@ -3694,7 +3699,7 @@
         <v>NO</v>
       </c>
     </row>
-    <row r="305" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="305" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A305" t="s">
         <v>35</v>
       </c>
@@ -3707,7 +3712,7 @@
         <v>NO</v>
       </c>
     </row>
-    <row r="306" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="306" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A306" t="s">
         <v>34</v>
       </c>
@@ -3720,17 +3725,17 @@
         <v>NO</v>
       </c>
     </row>
-    <row r="308" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="308" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A308" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="310" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="310" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A310" t="s">
         <v>78</v>
       </c>
     </row>
-    <row r="312" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="312" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A312" t="s">
         <v>1</v>
       </c>
@@ -3738,12 +3743,12 @@
         <v>79</v>
       </c>
     </row>
-    <row r="313" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="313" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A313" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="314" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="314" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A314" t="s">
         <v>19</v>
       </c>
@@ -3754,7 +3759,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="315" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="315" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A315" t="s">
         <v>80</v>
       </c>
@@ -3765,7 +3770,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="316" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="316" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A316" t="s">
         <v>81</v>
       </c>
@@ -3776,7 +3781,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="317" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="317" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A317" t="s">
         <v>16</v>
       </c>
@@ -3787,7 +3792,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="318" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="318" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A318" t="s">
         <v>82</v>
       </c>
@@ -3798,7 +3803,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="319" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="319" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A319" t="s">
         <v>83</v>
       </c>
@@ -3809,7 +3814,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="320" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="320" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A320" t="s">
         <v>18</v>
       </c>
@@ -3820,7 +3825,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="321" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="321" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A321" t="s">
         <v>84</v>
       </c>
@@ -3831,12 +3836,12 @@
         <v>88</v>
       </c>
     </row>
-    <row r="323" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="323" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A323" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="324" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="324" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A324" t="s">
         <v>19</v>
       </c>
@@ -3848,7 +3853,7 @@
         <v>YES</v>
       </c>
     </row>
-    <row r="325" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="325" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A325" t="s">
         <v>80</v>
       </c>
@@ -3860,12 +3865,12 @@
         <v>YES</v>
       </c>
     </row>
-    <row r="327" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="327" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A327" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="328" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="328" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A328" t="s">
         <v>80</v>
       </c>
@@ -3878,7 +3883,7 @@
         <v>YES</v>
       </c>
     </row>
-    <row r="329" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="329" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A329" t="s">
         <v>84</v>
       </c>
@@ -3891,7 +3896,7 @@
         <v>YES</v>
       </c>
     </row>
-    <row r="330" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="330" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A330" t="s">
         <v>16</v>
       </c>
@@ -3904,7 +3909,7 @@
         <v>YES</v>
       </c>
     </row>
-    <row r="331" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="331" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A331" t="s">
         <v>19</v>
       </c>
@@ -3917,7 +3922,7 @@
         <v>YES</v>
       </c>
     </row>
-    <row r="332" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="332" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A332" t="s">
         <v>18</v>
       </c>
@@ -3930,7 +3935,7 @@
         <v>NO</v>
       </c>
     </row>
-    <row r="333" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="333" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A333" t="s">
         <v>81</v>
       </c>
@@ -3943,7 +3948,7 @@
         <v>YES</v>
       </c>
     </row>
-    <row r="334" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="334" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A334" t="s">
         <v>83</v>
       </c>
@@ -3956,7 +3961,7 @@
         <v>YES</v>
       </c>
     </row>
-    <row r="335" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="335" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A335" t="s">
         <v>82</v>
       </c>
@@ -3969,17 +3974,17 @@
         <v>NO</v>
       </c>
     </row>
-    <row r="337" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="337" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A337" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="339" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="339" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A339" t="s">
         <v>85</v>
       </c>
     </row>
-    <row r="341" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="341" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A341" t="s">
         <v>1</v>
       </c>
@@ -3987,12 +3992,12 @@
         <v>86</v>
       </c>
     </row>
-    <row r="342" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="342" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A342" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="343" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="343" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A343" t="s">
         <v>19</v>
       </c>
@@ -4003,7 +4008,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="344" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="344" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A344" t="s">
         <v>83</v>
       </c>
@@ -4014,7 +4019,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="345" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="345" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A345" t="s">
         <v>81</v>
       </c>
@@ -4025,7 +4030,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="346" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="346" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A346" t="s">
         <v>84</v>
       </c>
@@ -4036,7 +4041,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="347" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="347" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A347" t="s">
         <v>80</v>
       </c>
@@ -4047,7 +4052,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="348" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="348" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A348" t="s">
         <v>82</v>
       </c>
@@ -4058,7 +4063,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="349" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="349" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A349" t="s">
         <v>16</v>
       </c>
@@ -4069,7 +4074,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="350" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="350" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A350" t="s">
         <v>87</v>
       </c>
@@ -4080,12 +4085,12 @@
         <v>89</v>
       </c>
     </row>
-    <row r="352" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="352" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A352" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="353" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="353" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A353" t="s">
         <v>19</v>
       </c>
@@ -4097,7 +4102,7 @@
         <v>YES</v>
       </c>
     </row>
-    <row r="354" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="354" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A354" t="s">
         <v>83</v>
       </c>
@@ -4109,12 +4114,12 @@
         <v>YES</v>
       </c>
     </row>
-    <row r="356" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="356" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A356" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="357" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="357" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A357" t="s">
         <v>80</v>
       </c>
@@ -4127,7 +4132,7 @@
         <v>YES</v>
       </c>
     </row>
-    <row r="358" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="358" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A358" t="s">
         <v>19</v>
       </c>
@@ -4140,7 +4145,7 @@
         <v>YES</v>
       </c>
     </row>
-    <row r="359" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="359" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A359" t="s">
         <v>84</v>
       </c>
@@ -4153,7 +4158,7 @@
         <v>YES</v>
       </c>
     </row>
-    <row r="360" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="360" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A360" t="s">
         <v>81</v>
       </c>
@@ -4166,7 +4171,7 @@
         <v>YES</v>
       </c>
     </row>
-    <row r="361" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="361" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A361" t="s">
         <v>16</v>
       </c>
@@ -4179,7 +4184,7 @@
         <v>YES</v>
       </c>
     </row>
-    <row r="362" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="362" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A362" t="s">
         <v>82</v>
       </c>
@@ -4192,7 +4197,7 @@
         <v>NO</v>
       </c>
     </row>
-    <row r="363" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="363" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A363" t="s">
         <v>83</v>
       </c>
@@ -4205,7 +4210,7 @@
         <v>YES</v>
       </c>
     </row>
-    <row r="364" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="364" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A364" t="s">
         <v>87</v>
       </c>
